--- a/global_attribute_table.xlsx
+++ b/global_attribute_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan079\cloudstor\SAZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/wyn028_csiro_au/Documents/Documents/GitHub/saz-data-processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9620C52-4DE0-4531-919F-E83F54E77B60}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{C9620C52-4DE0-4531-919F-E83F54E77B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAB3C923-09AC-4777-97E9-31D5054815FB}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="630" windowWidth="26910" windowHeight="19395" xr2:uid="{AB62E28C-C197-1443-8F5C-081BEC806BA6}"/>
+    <workbookView xWindow="-8990" yWindow="-21710" windowWidth="38620" windowHeight="21220" xr2:uid="{AB62E28C-C197-1443-8F5C-081BEC806BA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="153">
   <si>
     <t>Oceanographic and meteorological data from the Southern Ocean Time Series observatory in the Southern Ocean southwest of Tasmania.</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>metres</t>
-  </si>
-  <si>
-    <t>CSIRO; Antarctic Climate &amp; Ecosystem Cooperative Research Centre</t>
   </si>
   <si>
     <t>CSIRO Marine Laboratories, Castray Esp, Hobart, Tasmania 7001, Australia; 20 Castray Esplanade, Hobart Tasmania 7000, Australia</t>
@@ -514,6 +511,27 @@
   </si>
   <si>
     <t>SAZ47-19-2017</t>
+  </si>
+  <si>
+    <t>CSIRO; Australian Antarctic Program Partnership (AAPP)</t>
+  </si>
+  <si>
+    <t>SAZ47-22-2020</t>
+  </si>
+  <si>
+    <t>SAZ47-23-2021</t>
+  </si>
+  <si>
+    <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=IN2020_V09</t>
+  </si>
+  <si>
+    <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=IN2021_V02</t>
+  </si>
+  <si>
+    <t>https://www.cmar.csiro.au/data/trawler/survey_details.cfm?survey=IN2022_V03</t>
+  </si>
+  <si>
+    <t>SAZ47-24-2022</t>
   </si>
 </sst>
 </file>
@@ -610,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -635,6 +653,9 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -950,1456 +971,1539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53348BFB-8ECF-4745-825D-D0BA3C53E339}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="82" style="4" customWidth="1"/>
-    <col min="5" max="5" width="38.625" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="29.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="4" t="s">
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
         <v>58</v>
       </c>
-      <c r="C30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
         <v>59</v>
       </c>
-      <c r="C31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
         <v>60</v>
       </c>
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
         <v>62</v>
       </c>
-      <c r="C34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
         <v>63</v>
       </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
         <v>64</v>
       </c>
-      <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
         <v>65</v>
       </c>
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
         <v>67</v>
       </c>
-      <c r="C39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
         <v>68</v>
       </c>
-      <c r="C40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
         <v>69</v>
       </c>
-      <c r="C41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" t="s">
-        <v>70</v>
-      </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="13" t="s">
+    </row>
+    <row r="45" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+    </row>
+    <row r="47" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48" s="13" t="s">
+    </row>
+    <row r="49" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="13" t="s">
+    </row>
+    <row r="51" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="13" t="s">
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B52" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D53" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="13" t="s">
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="13" t="s">
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="13" t="s">
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="11" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>127</v>
-      </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D65" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>123</v>
-      </c>
-      <c r="B66" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" t="s">
-        <v>79</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>123</v>
-      </c>
-      <c r="B67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>124</v>
-      </c>
-      <c r="B69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>121</v>
-      </c>
-      <c r="B72" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>121</v>
-      </c>
-      <c r="B73" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>117</v>
-      </c>
-      <c r="B74" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>117</v>
-      </c>
-      <c r="B75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>119</v>
-      </c>
-      <c r="B76" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" t="s">
-        <v>79</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" s="13" t="s">
+    <row r="78" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>112</v>
-      </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>112</v>
-      </c>
-      <c r="B79" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>111</v>
-      </c>
-      <c r="B80" t="s">
-        <v>84</v>
-      </c>
-      <c r="C80" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" t="s">
-        <v>78</v>
-      </c>
-      <c r="C81" t="s">
-        <v>79</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" t="s">
         <v>109</v>
       </c>
-      <c r="B82" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" t="s">
-        <v>79</v>
-      </c>
-      <c r="D82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B84" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" t="s">
-        <v>79</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B86" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" t="s">
-        <v>79</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B88" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88" t="s">
-        <v>79</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C91" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D91" s="4" t="s">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" t="s">
+        <v>78</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>80</v>
+      </c>
+      <c r="B93" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B92" t="s">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>82</v>
+      </c>
+      <c r="B95" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" t="s">
+        <v>78</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>84</v>
       </c>
-      <c r="C92" t="s">
-        <v>79</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>81</v>
-      </c>
-      <c r="B93" t="s">
-        <v>78</v>
-      </c>
-      <c r="C93" t="s">
-        <v>79</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>83</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="B96" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" t="s">
+        <v>78</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>84</v>
       </c>
-      <c r="C94" t="s">
-        <v>79</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>83</v>
-      </c>
-      <c r="B95" t="s">
-        <v>78</v>
-      </c>
-      <c r="C95" t="s">
-        <v>79</v>
-      </c>
-      <c r="D95" s="4" t="s">
+      <c r="B97" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>85</v>
-      </c>
-      <c r="B96" t="s">
-        <v>84</v>
-      </c>
-      <c r="C96" t="s">
-        <v>79</v>
-      </c>
-      <c r="D96" s="4" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" t="s">
+        <v>78</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>85</v>
-      </c>
-      <c r="B97" t="s">
-        <v>78</v>
-      </c>
-      <c r="C97" t="s">
-        <v>79</v>
-      </c>
-      <c r="D97" s="4" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B99" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99" t="s">
+        <v>78</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B98" t="s">
-        <v>84</v>
-      </c>
-      <c r="C98" t="s">
-        <v>79</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B99" t="s">
-        <v>78</v>
-      </c>
-      <c r="C99" t="s">
-        <v>79</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" t="s">
+        <v>78</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" t="s">
+        <v>78</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
-        <v>84</v>
-      </c>
-      <c r="C100" t="s">
-        <v>79</v>
-      </c>
-      <c r="D100" s="4" t="s">
+      <c r="B102" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" t="s">
+        <v>78</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>78</v>
-      </c>
-      <c r="C101" t="s">
-        <v>79</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>97</v>
-      </c>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103" t="s">
+        <v>77</v>
+      </c>
+      <c r="C103" t="s">
+        <v>78</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>147</v>
+      </c>
+      <c r="B104" t="s">
+        <v>83</v>
+      </c>
+      <c r="C104" t="s">
+        <v>78</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" t="s">
+        <v>77</v>
+      </c>
+      <c r="C105" t="s">
+        <v>78</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106" t="s">
+        <v>83</v>
+      </c>
+      <c r="C106" t="s">
+        <v>78</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>152</v>
+      </c>
+      <c r="B107" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" t="s">
+        <v>78</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" t="s">
+        <v>83</v>
+      </c>
+      <c r="C108" t="s">
+        <v>78</v>
+      </c>
+      <c r="D108" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D102" r:id="rId1" xr:uid="{A219C8BE-C520-41E0-ADE3-8E898CB44D2A}"/>
     <hyperlink ref="D92" r:id="rId2" xr:uid="{1FE2022A-31F1-4A60-AF77-8990993E519E}"/>
+    <hyperlink ref="D103" r:id="rId3" xr:uid="{C37557C3-BAC3-4745-BF01-18088B0A23AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>